--- a/data/trans_dic/P32E$bar_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32E$bar_2023-Provincia-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1078,7 +1078,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$bar_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32E$bar_2023-Provincia-trans_dic.xlsx
@@ -585,7 +585,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.3713182654306652</v>
+        <v>0.3348589738988978</v>
       </c>
     </row>
     <row r="6">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7285806429390218</v>
+        <v>0.7285806429390219</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7700837269704168</v>
+        <v>0.7700837269704169</v>
       </c>
     </row>
     <row r="8">
@@ -632,11 +632,11 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2621704076475987</v>
+        <v>0.2472088527704043</v>
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="n">
-        <v>0.3903440879395552</v>
+        <v>0.3402927522700135</v>
       </c>
     </row>
     <row r="9">
@@ -666,13 +666,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7785062707416637</v>
+        <v>0.7785062707416635</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7357455267760946</v>
+        <v>0.7357455267760947</v>
       </c>
     </row>
     <row r="11">
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5225153843157284</v>
+        <v>0.5227730997578774</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.4812791849886376</v>
+        <v>0.4902617729330262</v>
       </c>
     </row>
     <row r="12">
@@ -698,11 +698,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9423735451092891</v>
+        <v>0.9425536111234066</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.9074190948480492</v>
+        <v>0.9039200284622172</v>
       </c>
     </row>
     <row r="13">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.7038249868047256</v>
+        <v>0.7038249868047259</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.8002261204543717</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7514752512040761</v>
+        <v>0.7514752512040759</v>
       </c>
     </row>
     <row r="14">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2564202463681916</v>
+        <v>0.2456756542854162</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5450229592627154</v>
+        <v>0.5188711625053385</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.529184851463388</v>
+        <v>0.5178222652396591</v>
       </c>
     </row>
     <row r="15">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.932396855800225</v>
+        <v>0.9426464445752833</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9583232941881819</v>
+        <v>0.9575449750714458</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8959920104924602</v>
+        <v>0.8943798221517252</v>
       </c>
     </row>
     <row r="16">
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7651289368494421</v>
+        <v>0.7651289368494419</v>
       </c>
     </row>
     <row r="17">
@@ -791,7 +791,7 @@
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="n">
-        <v>0.2765625316710977</v>
+        <v>0.2745891425450078</v>
       </c>
     </row>
     <row r="18">
@@ -822,7 +822,7 @@
         <v>0.7803036296166037</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.8617578726145814</v>
+        <v>0.8617578726145815</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.7971904458753378</v>
@@ -836,13 +836,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5848967345652102</v>
+        <v>0.5856884502676114</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4358848652308776</v>
+        <v>0.4625129756069645</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6272601754505652</v>
+        <v>0.6373989123296968</v>
       </c>
     </row>
     <row r="21">
@@ -853,13 +853,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9117706831667354</v>
+        <v>0.9128044359181836</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.897551841410511</v>
+        <v>0.9135276657931513</v>
       </c>
     </row>
     <row r="22">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.6109354501532983</v>
+        <v>0.6109354501532984</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6160005172612918</v>
+        <v>0.6160005172612917</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.6125011103988852</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4511784465232541</v>
+        <v>0.4369101254081762</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3304364110030101</v>
+        <v>0.336877441338924</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4685055912409751</v>
+        <v>0.4703620757030358</v>
       </c>
     </row>
     <row r="24">
@@ -908,13 +908,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7658287888152421</v>
+        <v>0.7741923303803165</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8255168396594373</v>
+        <v>0.8191532306852558</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.739504397546579</v>
+        <v>0.7472627645106666</v>
       </c>
     </row>
     <row r="25">
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.5502911259363436</v>
+        <v>0.5502911259363434</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.7165574183629614</v>
+        <v>0.7165574183629612</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.5973722252968447</v>
+        <v>0.5973722252968449</v>
       </c>
     </row>
     <row r="26">
@@ -946,13 +946,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3799438000710173</v>
+        <v>0.3819153505960172</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4297514984970745</v>
+        <v>0.4670711007724454</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4722488630450548</v>
+        <v>0.4565450606978994</v>
       </c>
     </row>
     <row r="27">
@@ -963,13 +963,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7268503491077424</v>
+        <v>0.7106851920179321</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8815124520302304</v>
+        <v>0.9022301476483079</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7308102427822624</v>
+        <v>0.7222879095440392</v>
       </c>
     </row>
     <row r="28">
@@ -984,13 +984,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.6569461383875637</v>
+        <v>0.6569461383875638</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.7215597749616647</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.6753240138503815</v>
+        <v>0.6753240138503817</v>
       </c>
     </row>
     <row r="29">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.5688369954773019</v>
+        <v>0.5646761471249696</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5924122426344444</v>
+        <v>0.5864346551589851</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.6062485960240516</v>
+        <v>0.5980394547020849</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7404801971267296</v>
+        <v>0.7307816365087456</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8202489970531842</v>
+        <v>0.8127950327162022</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7446589097773142</v>
+        <v>0.7396745653167198</v>
       </c>
     </row>
     <row r="31">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>2390</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="7">
@@ -1238,11 +1238,11 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2620</v>
+        <v>2470</v>
       </c>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="n">
-        <v>4605</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="11">
@@ -1306,11 +1306,11 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8483</v>
+        <v>8487</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>8267</v>
+        <v>8422</v>
       </c>
     </row>
     <row r="15">
@@ -1321,11 +1321,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15299</v>
+        <v>15302</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>15588</v>
+        <v>15528</v>
       </c>
     </row>
     <row r="16">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3037</v>
+        <v>2910</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6310</v>
+        <v>6007</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>12395</v>
+        <v>12129</v>
       </c>
     </row>
     <row r="19">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11044</v>
+        <v>11166</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11095</v>
+        <v>11086</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20987</v>
+        <v>20949</v>
       </c>
     </row>
     <row r="20">
@@ -1448,7 +1448,7 @@
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="n">
-        <v>999</v>
+        <v>992</v>
       </c>
     </row>
     <row r="23">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>15961</v>
+        <v>15982</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3111</v>
+        <v>3301</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>21593</v>
+        <v>21942</v>
       </c>
     </row>
     <row r="27">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>24880</v>
+        <v>24909</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>7137</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>30898</v>
+        <v>31448</v>
       </c>
     </row>
     <row r="28">
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>19813</v>
+        <v>19186</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>6492</v>
+        <v>6619</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>29778</v>
+        <v>29896</v>
       </c>
     </row>
     <row r="31">
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>33630</v>
+        <v>33997</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>16219</v>
+        <v>16094</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>47003</v>
+        <v>47496</v>
       </c>
     </row>
     <row r="32">
@@ -1654,13 +1654,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>17768</v>
+        <v>17860</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>7939</v>
+        <v>8628</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>30808</v>
+        <v>29783</v>
       </c>
     </row>
     <row r="35">
@@ -1671,13 +1671,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>33990</v>
+        <v>33234</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>16284</v>
+        <v>16667</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>47675</v>
+        <v>47119</v>
       </c>
     </row>
     <row r="36">
@@ -1726,13 +1726,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>91857</v>
+        <v>91185</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>38025</v>
+        <v>37641</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>136811</v>
+        <v>134958</v>
       </c>
     </row>
     <row r="39">
@@ -1743,13 +1743,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>119574</v>
+        <v>118008</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>52649</v>
+        <v>52170</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>168046</v>
+        <v>166921</v>
       </c>
     </row>
     <row r="40">
